--- a/Semester 3/DS Grundlagen/SEP DSG.xlsx
+++ b/Semester 3/DS Grundlagen/SEP DSG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonas/Documents/GitHub/ZHAW/Semester 3/DS Grundlagen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F75AD07-8156-044C-8599-F35972F589FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C220ED3A-7F71-0541-BE85-9C2A37F5574B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="19640" xr2:uid="{CEF74FCD-3284-ED4D-A60D-F6C755181239}"/>
   </bookViews>
@@ -65,7 +65,7 @@
     <t>Total</t>
   </si>
   <si>
-    <t>F-Mass</t>
+    <t>F1-Score</t>
   </si>
 </sst>
 </file>
@@ -208,6 +208,138 @@
         <a:xfrm>
           <a:off x="3703532" y="98863"/>
           <a:ext cx="3175000" cy="1714500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>311797</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>91258</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>264583</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>98556</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B1614AD-0795-8518-A5A4-6563E4A11CA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3658776" y="1877196"/>
+          <a:ext cx="4053828" cy="602610"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>277813</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>26459</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>264583</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95639</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47BA4C5A-BDFA-7749-C38B-475BC9E90226}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3624792" y="2606147"/>
+          <a:ext cx="4087812" cy="664492"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>407882</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>18541</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>239648</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBD2A749-D2B4-1B64-5F46-C436848BEE3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3772918" y="3485548"/>
+          <a:ext cx="3956949" cy="593284"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -538,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680438A9-7231-9142-B19F-92A3E3C39A46}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="167" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -575,10 +707,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>500</v>
       </c>
       <c r="D3" s="1">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -587,10 +719,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -599,7 +731,7 @@
       </c>
       <c r="B6" s="7">
         <f>SUM(C3:D4)</f>
-        <v>7</v>
+        <v>666</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -608,7 +740,7 @@
       </c>
       <c r="B7" s="8">
         <f>(C3+D4)/B6</f>
-        <v>0.42857142857142855</v>
+        <v>0.90090090090090091</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -617,7 +749,7 @@
       </c>
       <c r="B8" s="8">
         <f>C3/(C3+C4)</f>
-        <v>0.66666666666666663</v>
+        <v>0.9041591320072333</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -626,7 +758,7 @@
       </c>
       <c r="B9" s="8">
         <f>C3/(C3+D3)</f>
-        <v>0.4</v>
+        <v>0.97465886939571145</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -635,7 +767,7 @@
       </c>
       <c r="B10" s="9">
         <f>2*(B8*B9)/(B8+B9)</f>
-        <v>0.5</v>
+        <v>0.93808630393996251</v>
       </c>
     </row>
   </sheetData>

--- a/Semester 3/DS Grundlagen/SEP DSG.xlsx
+++ b/Semester 3/DS Grundlagen/SEP DSG.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonas/Documents/GitHub/ZHAW/Semester 3/DS Grundlagen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C220ED3A-7F71-0541-BE85-9C2A37F5574B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192F3922-ED22-C043-B24A-E202959A61BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="19640" xr2:uid="{CEF74FCD-3284-ED4D-A60D-F6C755181239}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25800" windowHeight="19640" xr2:uid="{CEF74FCD-3284-ED4D-A60D-F6C755181239}"/>
   </bookViews>
   <sheets>
     <sheet name="Precision &amp; Recall" sheetId="1" r:id="rId1"/>
+    <sheet name="Recht" sheetId="4" r:id="rId2"/>
+    <sheet name="Manhattan distance" sheetId="2" r:id="rId3"/>
+    <sheet name="Funktionen" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,8 +38,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="172">
   <si>
     <t>Precision &amp; Recall Matrix</t>
   </si>
@@ -66,6 +91,534 @@
   </si>
   <si>
     <t>F1-Score</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t> z</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Funktion</t>
+  </si>
+  <si>
+    <t>Bemerkungen</t>
+  </si>
+  <si>
+    <t>Formel auf Englisch</t>
+  </si>
+  <si>
+    <t>IF</t>
+  </si>
+  <si>
+    <t>If-Else Entscheidung</t>
+  </si>
+  <si>
+    <t>=IF(A2&gt;B2;1;0)</t>
+  </si>
+  <si>
+    <t>ISNUMBER</t>
+  </si>
+  <si>
+    <t>True falls der Parameter eine Zahl ist, sonst False</t>
+  </si>
+  <si>
+    <t>=ISNUMBER(A5)</t>
+  </si>
+  <si>
+    <t>=ISNUMBER(A6)</t>
+  </si>
+  <si>
+    <t>ISBLANK</t>
+  </si>
+  <si>
+    <t>True falls eine Zelle leer ist</t>
+  </si>
+  <si>
+    <t>=ISBLANK(A9)</t>
+  </si>
+  <si>
+    <t>=ISBLANK(A10)</t>
+  </si>
+  <si>
+    <t>VLOOKUP</t>
+  </si>
+  <si>
+    <t>Lookup von key-value Pairs, dabei muss value rechts vom key sein.</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>vlookup</t>
+  </si>
+  <si>
+    <t>=VLOOKUP(D14;$A$14:$B$16;2;FALSE)</t>
+  </si>
+  <si>
+    <t>=VLOOKUP(D15;$A$14:$B$16;2;FALSE)</t>
+  </si>
+  <si>
+    <t>=VLOOKUP(D16;$A$14:$B$16;2;FALSE)</t>
+  </si>
+  <si>
+    <t>XLOOKUP</t>
+  </si>
+  <si>
+    <t>Lookup von key-value Paris. Value kann in irgend einer Spalte sein.</t>
+  </si>
+  <si>
+    <t>xlookup</t>
+  </si>
+  <si>
+    <t>=XLOOKUP(D20;$B$20:$B$22;$A$20:$A$22)</t>
+  </si>
+  <si>
+    <t>=XLOOKUP(D21;$B$20:$B$22;$A$20:$A$22)</t>
+  </si>
+  <si>
+    <t>=XLOOKUP(D22;$B$20:$B$22;$A$20:$A$22)</t>
+  </si>
+  <si>
+    <t>IFERROR</t>
+  </si>
+  <si>
+    <t>Falls ein Fehler auftritt (z.B. 1/0), dann wird z.B: 0 returniert.</t>
+  </si>
+  <si>
+    <t>iferror</t>
+  </si>
+  <si>
+    <t>=IFERROR(A26/B26; 0)</t>
+  </si>
+  <si>
+    <t>=IFERROR(A27/B27; 0)</t>
+  </si>
+  <si>
+    <t>SUMPRODUCT</t>
+  </si>
+  <si>
+    <t>Bildet das Skalarprodukt von zwei rows oder columns</t>
+  </si>
+  <si>
+    <t>t_sumproduct</t>
+  </si>
+  <si>
+    <t>sumproduct</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>=1*3 + 2 * 4</t>
+  </si>
+  <si>
+    <t>=SUMPRODUCT(A32:A33;B32:B33)</t>
+  </si>
+  <si>
+    <t>=1*2 + 3 * 4</t>
+  </si>
+  <si>
+    <t>=SUMPRODUCT(A32:B32;A33:B33)</t>
+  </si>
+  <si>
+    <t>sumproduct mit strukturierten Verweisen auf Tabelle</t>
+  </si>
+  <si>
+    <t>=SUMPRODUCT(t_sumproduct[Column1];t_sumproduct[Column2])</t>
+  </si>
+  <si>
+    <t>COUNTIF</t>
+  </si>
+  <si>
+    <t>Zählt wievielmal ein bestimmter Wert in einem Zellenbereich vorkommt.</t>
+  </si>
+  <si>
+    <t>countif</t>
+  </si>
+  <si>
+    <t>=COUNTIF($A$39:$A$43;A39)</t>
+  </si>
+  <si>
+    <t>=COUNTIF($A$39:$A$43;A40)</t>
+  </si>
+  <si>
+    <t>=COUNTIF($A$39:$A$43;A41)</t>
+  </si>
+  <si>
+    <t>=COUNTIF($A$39:$A$43;A42)</t>
+  </si>
+  <si>
+    <t>=COUNTIF($A$39:$A$43;A43)</t>
+  </si>
+  <si>
+    <t>SUMSQ</t>
+  </si>
+  <si>
+    <t>Summiert die Quadrate von Werten zusammen</t>
+  </si>
+  <si>
+    <t>sumsq</t>
+  </si>
+  <si>
+    <t>=1^2+2^2+3^2</t>
+  </si>
+  <si>
+    <t>=SUMSQ(A49:A51)</t>
+  </si>
+  <si>
+    <t>sumsq mit strukturierten Verweisen</t>
+  </si>
+  <si>
+    <t>=SUMSQ(t_sumsq[Column1])</t>
+  </si>
+  <si>
+    <t>SUM</t>
+  </si>
+  <si>
+    <t>Summiert Werte auf</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>=SUM(A56:A58)</t>
+  </si>
+  <si>
+    <t>sum mit strukturierten Verweisen</t>
+  </si>
+  <si>
+    <t>=SUM(t_sum[Column1])</t>
+  </si>
+  <si>
+    <t>ROWS</t>
+  </si>
+  <si>
+    <t>Zählt die Anzahl Zeilen</t>
+  </si>
+  <si>
+    <t>rows</t>
+  </si>
+  <si>
+    <t>=ROWS(A63:A65)</t>
+  </si>
+  <si>
+    <t>COUNT</t>
+  </si>
+  <si>
+    <t>Zählt die Anzahl Zellen in einem Bereich</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>=COUNT(A69:A71)</t>
+  </si>
+  <si>
+    <t>Quadrat ^2</t>
+  </si>
+  <si>
+    <t>Quadrat einer Zahl</t>
+  </si>
+  <si>
+    <t>=3^2</t>
+  </si>
+  <si>
+    <t>SQRT</t>
+  </si>
+  <si>
+    <t>Quadratwurzel einer Zahl</t>
+  </si>
+  <si>
+    <t>=SQRT(A77)</t>
+  </si>
+  <si>
+    <t>AVERAGE</t>
+  </si>
+  <si>
+    <t>Mittelwert von Zahlen</t>
+  </si>
+  <si>
+    <t>average mit strukturierten Verweisen</t>
+  </si>
+  <si>
+    <t>=AVERAGE(t_mean[Column1])</t>
+  </si>
+  <si>
+    <t>MEDIAN</t>
+  </si>
+  <si>
+    <t>Median von Zahlen</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>=MEDIAN(t_mean[Column1])</t>
+  </si>
+  <si>
+    <t>STDEV</t>
+  </si>
+  <si>
+    <t>Standard Deviation von Zahlen</t>
+  </si>
+  <si>
+    <t>Standardabweicheung</t>
+  </si>
+  <si>
+    <t>=STDEV(t_stdev[Column1])</t>
+  </si>
+  <si>
+    <t>MIN, MAX</t>
+  </si>
+  <si>
+    <t>Minimum und Maximum einer Auswahl an Zellen</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>=MIN(t_minmax[Column1])</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>=MAX(t_minmax[Column1])</t>
+  </si>
+  <si>
+    <t>MODE</t>
+  </si>
+  <si>
+    <t>Modus (Häufigster Wert)</t>
+  </si>
+  <si>
+    <t>=MODE.SNGL(t_mode[Column1])</t>
+  </si>
+  <si>
+    <t>ABS</t>
+  </si>
+  <si>
+    <t>Absolutwert einer Zahl</t>
+  </si>
+  <si>
+    <t>=ABS(A120)</t>
+  </si>
+  <si>
+    <t>TRANSPOSE</t>
+  </si>
+  <si>
+    <t>Transponieren einer Zeile oder Spalte</t>
+  </si>
+  <si>
+    <t>Transponierte einer COLUMN mit strukturiertem Verweis</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Tranpsonierte einer Zeile</t>
+  </si>
+  <si>
+    <t>FILTER</t>
+  </si>
+  <si>
+    <t>Filtert Zeilen, welche ein Kriterium erfüllen.</t>
+  </si>
+  <si>
+    <t>=FILTER(t_filter;t_filter[Column2]="A")</t>
+  </si>
+  <si>
+    <t>=FILTER(t_filter;t_filter[Column2]=B")</t>
+  </si>
+  <si>
+    <t>Tabellen Operationen mit einzelnen Spalten</t>
+  </si>
+  <si>
+    <t>t_1_1</t>
+  </si>
+  <si>
+    <t>=@[column1]*@[column2]</t>
+  </si>
+  <si>
+    <t>=t_1_1[Column1]</t>
+  </si>
+  <si>
+    <t>=t_1_1[@Column1]</t>
+  </si>
+  <si>
+    <t>=t_1_1[Column1]*t_1_2[Column2]</t>
+  </si>
+  <si>
+    <t>=XLOOKUP(1;t_1[Column1];t_1[Column2])</t>
+  </si>
+  <si>
+    <t>Tabellen Operationen mit mehreren Spalten</t>
+  </si>
+  <si>
+    <t>t_1_2</t>
+  </si>
+  <si>
+    <t>=AVERAGE(t_1_2[@[Column1]:[Column2]])</t>
+  </si>
+  <si>
+    <r>
+      <t>=XLOOKUP(1;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF5F8CED"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>t_1_2[Column1]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF444444"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEB5E60"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>t_1_2[[Column1]:[Column2]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF444444"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>=XLOOKUP(2;t_1_2[Column1];t_1_2[[Column1]:[Column3]])</t>
+  </si>
+  <si>
+    <t>Anzahl Zahlenwerte und Textwerte in Spalte</t>
+  </si>
+  <si>
+    <t>Column 1</t>
+  </si>
+  <si>
+    <t>Anzahl Zahlen</t>
+  </si>
+  <si>
+    <t>=SUMPRODUCT(--ISNUMBER(A163:A165))</t>
+  </si>
+  <si>
+    <t>Doppelte Negative (--) konvertieren boolesche Werte in binäre Werte. Diese doppelt negativen (--) Zeichen werden verwendet, um TRUE- und FALSE-Werte in 1en und 0en zu konvertieren.</t>
+  </si>
+  <si>
+    <t>Anzahl Texte</t>
+  </si>
+  <si>
+    <t>=SUMPRODUCT(--ISTEXT(A163:A165))</t>
+  </si>
+  <si>
+    <t>Anzahl nicht leere Zellen</t>
+  </si>
+  <si>
+    <t>Test und Kontrollgruppe erstellen (Bsp. 80/20)</t>
+  </si>
+  <si>
+    <t>mit Nummer</t>
+  </si>
+  <si>
+    <t>direkt</t>
+  </si>
+  <si>
+    <t>Evalutationsmetriken für Regressionsprobleme</t>
+  </si>
+  <si>
+    <t>MSE (Mean squared Error)</t>
+  </si>
+  <si>
+    <t>=SUMSQ(*effektiv* - *berechnet*) / *Anzahl Beobachtungen*</t>
+  </si>
+  <si>
+    <t>RMSD (Root mean squared Error)</t>
+  </si>
+  <si>
+    <t>=SQRT(*MSE*)</t>
+  </si>
+  <si>
+    <t>MAE (Mean absoulte Error)</t>
+  </si>
+  <si>
+    <t>=SUM(ABS(*effektiv* - *berechnet*)) / *Anzal Beobachtungen*</t>
+  </si>
+  <si>
+    <t>Phrasen</t>
+  </si>
+  <si>
+    <t>Fraglich ist, ob…</t>
+  </si>
+  <si>
+    <t>Im Ergebnis hat sich … nach Art. 143bis Abs. 1 StGB schuldig gemacht.</t>
+  </si>
+  <si>
+    <t>... könnte sich des Tatbestands des ... strafbar gemacht haben, indem ...</t>
+  </si>
+  <si>
+    <t>alternativ den Betrag der Differenz in einer zusätzlichen Spalte berechnen</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>ACHTUNG! Nur auf die berechneten Zielwerte anwenden -&gt; test</t>
   </si>
 </sst>
 </file>
@@ -75,10 +628,81 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF5F8CED"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFEB5E60"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -132,17 +756,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -153,11 +770,201 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -206,8 +1013,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3703532" y="98863"/>
-          <a:ext cx="3175000" cy="1714500"/>
+          <a:off x="3752879" y="98863"/>
+          <a:ext cx="3159457" cy="1703398"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -348,7 +1155,297 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>454234</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>27810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>157592</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>27907</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A551577A-733F-8586-928E-8835E0BDA41F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7944453" y="1863284"/>
+          <a:ext cx="5478613" cy="611922"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>482045</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>37079</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>704526</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>67117</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1EB7AAC-A60C-8F53-53E1-D20793F8217E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7972264" y="2688320"/>
+          <a:ext cx="5997736" cy="641863"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>435693</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>83432</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>262064</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>195507</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEB3CB74-D8E3-E2F2-7858-BD40DF51EB80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7100875" y="899198"/>
+          <a:ext cx="7251700" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F890E4CC-66C1-8642-85FA-3CB83EA5020E}" name="cosine" displayName="cosine" ref="A1:G7" totalsRowShown="0" headerRowDxfId="2" dataDxfId="3">
+  <autoFilter ref="A1:G7" xr:uid="{F890E4CC-66C1-8642-85FA-3CB83EA5020E}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{34C9E40D-D6C8-354A-9B05-160D3A28B51E}" name="Column1" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{EED7EE8D-11B6-014B-8A96-F0EC0FA97198}" name="u" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{73D16EC8-7A23-E547-B123-DCFB3C4FA5D8}" name="v" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{AE2EC49F-AAB4-1E4F-86B5-20187CB02FFC}" name="w" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{1C36DEF7-8D0A-544A-9273-8FFF36E37E34}" name="x" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{7C577B60-1CCE-9744-B734-35A3F2F4A3A1}" name="y" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{ED9DDFB5-54FE-D944-BFF9-0684FB313282}" name=" z" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{4A16C5D5-7DD6-B14C-A515-954C69D7BAC5}" name="t_filter" displayName="t_filter" ref="A138:B142" totalsRowShown="0">
+  <autoFilter ref="A138:B142" xr:uid="{4A16C5D5-7DD6-B14C-A515-954C69D7BAC5}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{04F7EBEC-A607-CA4C-B045-D8912CFD9859}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{97EA91AA-A096-3049-AE72-7946AE66E48D}" name="Column2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{4F964405-1C2F-124E-AFD1-C85B8EEE7280}" name="t_minmax" displayName="t_minmax" ref="A105:A108" totalsRowShown="0">
+  <autoFilter ref="A105:A108" xr:uid="{4F964405-1C2F-124E-AFD1-C85B8EEE7280}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{3D87F3EC-CAE4-1341-A9EF-7BBED31A3D2D}" name="Column1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{42C7A2E9-020A-F944-AF3A-9C6AF73FD824}" name="t_median" displayName="t_median" ref="A89:A92" totalsRowShown="0">
+  <autoFilter ref="A89:A92" xr:uid="{42C7A2E9-020A-F944-AF3A-9C6AF73FD824}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{9CDB19D3-76BC-7B49-8642-91E0E54B7988}" name="Column1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{195F7670-4A77-7745-9C81-51E4C872B6FD}" name="t_1_1" displayName="t_1_1" ref="A147:C150" totalsRowShown="0">
+  <autoFilter ref="A147:C150" xr:uid="{195F7670-4A77-7745-9C81-51E4C872B6FD}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{35BB0C22-0CC4-AA40-B908-779C1CBC000C}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{4A6B7F65-A455-A347-9DD7-D3A5D13B353A}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{4C35BFDD-740C-DC49-884A-EBAC01085BBF}" name="Column3" dataDxfId="1">
+      <calculatedColumnFormula>t_1_1[[#This Row],[Column1]]*t_1_1[[#This Row],[Column2]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{68B2888F-78E8-9A4E-A71B-28B8EDD75DBC}" name="t_1_2" displayName="t_1_2" ref="A155:C158" totalsRowShown="0">
+  <autoFilter ref="A155:C158" xr:uid="{68B2888F-78E8-9A4E-A71B-28B8EDD75DBC}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{FD406C42-978F-054A-B3B9-3C299D832E56}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{8B79C8ED-8960-6B48-B6D7-7133A85868F6}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{2416620B-5CD3-CA4F-83F9-F06BBDA010A1}" name="Column3" dataDxfId="0">
+      <calculatedColumnFormula>AVERAGE(t_1_2[[#This Row],[Column1]:[Column2]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B1769B9A-9955-FF4B-83C7-F9E2BC796FFB}" name="t_sumproduct" displayName="t_sumproduct" ref="A32:B34" totalsRowShown="0">
+  <autoFilter ref="A32:B34" xr:uid="{B1769B9A-9955-FF4B-83C7-F9E2BC796FFB}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{D414852C-ACB2-E742-81BB-A2EA534E70D9}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{3A003D9F-892F-284A-90E1-1002B85E93AB}" name="Column2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9F71CB17-F584-D741-B3FE-DDB674ED8A15}" name="t_sumsq" displayName="t_sumsq" ref="A49:A52" totalsRowShown="0">
+  <autoFilter ref="A49:A52" xr:uid="{9F71CB17-F584-D741-B3FE-DDB674ED8A15}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{18D7E745-55C6-864A-81FA-24A087F94AA1}" name="Column1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B84A0761-E1FD-DC43-919B-8C9547F402C6}" name="t_sum" displayName="t_sum" ref="A56:A59" totalsRowShown="0">
+  <autoFilter ref="A56:A59" xr:uid="{B84A0761-E1FD-DC43-919B-8C9547F402C6}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{072B74DC-CFC5-5541-A57C-B9626B6ABCF0}" name="Column1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A2516CE2-5B4D-8747-AB24-1FC6C75EBB61}" name="t_mean" displayName="t_mean" ref="A82:A85" totalsRowShown="0">
+  <autoFilter ref="A82:A85" xr:uid="{A2516CE2-5B4D-8747-AB24-1FC6C75EBB61}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{3DE9A3E1-CF3B-5044-AE9C-3E96CFD8CDA8}" name="Column1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{EA16F1A3-EA33-6E46-B18B-7D548937E516}" name="t_transpose" displayName="t_transpose" ref="A126:A129" totalsRowShown="0">
+  <autoFilter ref="A126:A129" xr:uid="{EA16F1A3-EA33-6E46-B18B-7D548937E516}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{F06EBF0A-3C72-F74C-A0C2-2BE534013BA3}" name="Column1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{C39293F6-79F5-8D46-85F0-4BB6CFBA1CC4}" name="Table6" displayName="Table6" ref="A131:C132" totalsRowShown="0">
+  <autoFilter ref="A131:C132" xr:uid="{C39293F6-79F5-8D46-85F0-4BB6CFBA1CC4}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{3B0362E2-4644-034D-A5DB-86BDE0679B0E}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{32EDFDC3-8240-7A41-85BC-743FA4935E2F}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{438A0815-981E-7549-ABFB-3A355F2A6B8A}" name="Column3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{250C3562-EE03-E94A-94BE-18465F4ED3D7}" name="t_stdev" displayName="t_stdev" ref="A97:A100" totalsRowShown="0">
+  <autoFilter ref="A97:A100" xr:uid="{250C3562-EE03-E94A-94BE-18465F4ED3D7}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{CBCFB7FA-7709-7B4E-9182-2AADD61852A5}" name="Column1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{E2B5E7D4-BF44-9747-93C7-A1E4A1BBBDD8}" name="t_mode" displayName="t_mode" ref="A114:A118" totalsRowShown="0">
+  <autoFilter ref="A114:A118" xr:uid="{E2B5E7D4-BF44-9747-93C7-A1E4A1BBBDD8}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{205C0EF5-206C-E944-8551-2D4B661B8CFD}" name="Column1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -671,7 +1768,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -680,18 +1777,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -700,74 +1794,74 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>500</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1">
-        <v>100</v>
+        <v>556</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="4">
         <f>SUM(C3:D4)</f>
-        <v>666</v>
+        <v>592</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="5">
         <f>(C3+D4)/B6</f>
-        <v>0.90090090090090091</v>
+        <v>0.97804054054054057</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="5">
         <f>C3/(C3+C4)</f>
-        <v>0.9041591320072333</v>
+        <v>0.65714285714285714</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="5">
         <f>C3/(C3+D3)</f>
-        <v>0.97465886939571145</v>
+        <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="6">
         <f>2*(B8*B9)/(B8+B9)</f>
-        <v>0.93808630393996251</v>
+        <v>0.77966101694915246</v>
       </c>
     </row>
   </sheetData>
@@ -779,4 +1873,1847 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1145DF63-2E7A-DA4F-A58F-4FCF5C0B4081}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView zoomScale="194" zoomScaleNormal="234" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{512E5C17-C17E-834C-A8DA-43FCA0E34408}">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="10">
+        <v>2</v>
+      </c>
+      <c r="C2" s="10">
+        <v>4</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10">
+        <v>3</v>
+      </c>
+      <c r="F2" s="10">
+        <v>2</v>
+      </c>
+      <c r="G2" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10">
+        <v>2</v>
+      </c>
+      <c r="E3" s="10">
+        <v>1</v>
+      </c>
+      <c r="F3" s="10">
+        <v>1</v>
+      </c>
+      <c r="G3" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="10">
+        <v>2</v>
+      </c>
+      <c r="C4" s="10">
+        <v>2</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10">
+        <v>2</v>
+      </c>
+      <c r="F4" s="10">
+        <v>1</v>
+      </c>
+      <c r="G4" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="10">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10">
+        <v>3</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10">
+        <v>2</v>
+      </c>
+      <c r="F5" s="10">
+        <v>1</v>
+      </c>
+      <c r="G5" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="10">
+        <v>3</v>
+      </c>
+      <c r="C6" s="10">
+        <v>5</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10">
+        <v>2</v>
+      </c>
+      <c r="G6" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="10">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10">
+        <v>4</v>
+      </c>
+      <c r="D7" s="10">
+        <v>5</v>
+      </c>
+      <c r="E7" s="10">
+        <v>2</v>
+      </c>
+      <c r="F7" s="10">
+        <v>3</v>
+      </c>
+      <c r="G7" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" t="str" cm="1">
+        <f t="array" ref="B10:G10">TRANSPOSE(A11:A16)</f>
+        <v>A</v>
+      </c>
+      <c r="C10" t="str">
+        <v>B</v>
+      </c>
+      <c r="D10" t="str">
+        <v>C</v>
+      </c>
+      <c r="E10" t="str">
+        <v>D</v>
+      </c>
+      <c r="F10" t="str">
+        <v>E</v>
+      </c>
+      <c r="G10" t="str">
+        <v>F</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="str">
+        <f>A2</f>
+        <v>A</v>
+      </c>
+      <c r="B11" cm="1">
+        <f t="array" ref="B11">SUM(ABS(B2:G2-B2:G2))</f>
+        <v>0</v>
+      </c>
+      <c r="C11" cm="1">
+        <f t="array" ref="C11">SUM(ABS(B2:G2-B3:G3))</f>
+        <v>11</v>
+      </c>
+      <c r="D11" cm="1">
+        <f t="array" ref="D11">SUM(ABS(B2:G2-B4:G4))</f>
+        <v>4</v>
+      </c>
+      <c r="E11" cm="1">
+        <f t="array" ref="E11">SUM(ABS(B2:G2-B5:G5))</f>
+        <v>3</v>
+      </c>
+      <c r="F11" cm="1">
+        <f t="array" ref="F11">SUM(ABS(B2:G2-B6:G6))</f>
+        <v>5</v>
+      </c>
+      <c r="G11" cm="1">
+        <f t="array" ref="G11">SUM(ABS(B2:G2-B7:G7))</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="str">
+        <f t="shared" ref="A12:A20" si="0">A3</f>
+        <v>B</v>
+      </c>
+      <c r="B12" cm="1">
+        <f t="array" ref="B12">SUM(ABS(B3:G3-B2:G2))</f>
+        <v>11</v>
+      </c>
+      <c r="C12" cm="1">
+        <f t="array" ref="C12">SUM(ABS(B3:G3-B3:G3))</f>
+        <v>0</v>
+      </c>
+      <c r="D12" cm="1">
+        <f t="array" ref="D12">SUM(ABS(B3:G3-B4:G4))</f>
+        <v>7</v>
+      </c>
+      <c r="E12" cm="1">
+        <f t="array" ref="E12">SUM(ABS(B3:G3-B5:G5))</f>
+        <v>8</v>
+      </c>
+      <c r="F12" cm="1">
+        <f t="array" ref="F12">SUM(ABS(B3:G3-B6:G6))</f>
+        <v>10</v>
+      </c>
+      <c r="G12" cm="1">
+        <f t="array" ref="G12">SUM(ABS(B3:G3-B7:G7))</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v>E</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{591A9AE4-3215-8747-9DD5-5C39F1136295}">
+  <dimension ref="A1:O187"/>
+  <sheetViews>
+    <sheetView topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="D180" sqref="D180"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="6" max="6" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="56.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="32" x14ac:dyDescent="0.4">
+      <c r="A1" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="19"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <f>IF(A3&gt;B3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="b">
+        <f>ISNUMBER(A6)</f>
+        <v>1</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="b">
+        <f>ISNUMBER(A7)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="b">
+        <f>ISBLANK(A10)</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D11" t="b">
+        <f>ISBLANK(A11)</f>
+        <v>1</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="str">
+        <f>VLOOKUP(D15,$A$15:$B$17,2,FALSE)</f>
+        <v>A</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="str">
+        <f>VLOOKUP(D16,$A$15:$B$17,2,FALSE)</f>
+        <v>B</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" t="str">
+        <f>VLOOKUP(D17,$A$15:$B$17,2,FALSE)</f>
+        <v>C</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="str">
+        <f>_xlfn.XLOOKUP(D21,$B$21:$B$23,$A$21:$A$23)</f>
+        <v>A</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" t="str">
+        <f>_xlfn.XLOOKUP(D22,$B$21:$B$23,$A$21:$A$23)</f>
+        <v>B</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23" t="str">
+        <f>_xlfn.XLOOKUP(D23,$B$21:$B$23,$A$21:$A$23)</f>
+        <v>C</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <f>IFERROR(A27/B27, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <f>IFERROR(A28/B28, 0)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32">
+        <f>SUMPRODUCT(A33:A34,B33:B34)</f>
+        <v>11</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <f>SUMPRODUCT(A33:B33,A34:B34)</f>
+        <v>14</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D35">
+        <f>SUMPRODUCT(t_sumproduct[Column1],t_sumproduct[Column2])</f>
+        <v>11</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <f>COUNTIF($A$40:$A$44,A40)</f>
+        <v>2</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ref="D41:D44" si="0">COUNTIF($A$40:$A$44,A41)</f>
+        <v>3</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49">
+        <f>SUMSQ(A50:A52)</f>
+        <v>14</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <f>SUMSQ(t_sumsq[Column1])</f>
+        <v>14</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D55" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56">
+        <f>SUM(A57:A59)</f>
+        <v>6</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <f>SUM(t_sum[Column1])</f>
+        <v>6</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C62" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <f>ROWS(A64:A66)</f>
+        <v>3</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D69" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <f>COUNT(A70:A72)</f>
+        <v>3</v>
+      </c>
+      <c r="G70" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C74" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>3</v>
+      </c>
+      <c r="D75">
+        <f>3^2</f>
+        <v>9</v>
+      </c>
+      <c r="G75" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C77" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>9</v>
+      </c>
+      <c r="D78">
+        <f>SQRT(A78)</f>
+        <v>3</v>
+      </c>
+      <c r="G78" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C80" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D81" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>22</v>
+      </c>
+      <c r="D82">
+        <f>AVERAGE(t_mean[Column1])</f>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="G82" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C87" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D88" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>22</v>
+      </c>
+      <c r="D89">
+        <f>MEDIAN(t_median[Column1])</f>
+        <v>2</v>
+      </c>
+      <c r="G89" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C95" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D96" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>22</v>
+      </c>
+      <c r="D97">
+        <f>STDEV(t_stdev[Column1])</f>
+        <v>1</v>
+      </c>
+      <c r="G97" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C103" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D104" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>22</v>
+      </c>
+      <c r="D105">
+        <f>MIN(t_minmax[Column1])</f>
+        <v>1</v>
+      </c>
+      <c r="G105" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>2</v>
+      </c>
+      <c r="D107" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>3</v>
+      </c>
+      <c r="D108">
+        <f>MAX(t_minmax[Column1])</f>
+        <v>3</v>
+      </c>
+      <c r="G108" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C112" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>22</v>
+      </c>
+      <c r="D114">
+        <f>_xlfn.MODE.SNGL(t_mode[Column1])</f>
+        <v>2</v>
+      </c>
+      <c r="G114" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C120" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>-5</v>
+      </c>
+      <c r="D121">
+        <f>ABS(A121)</f>
+        <v>5</v>
+      </c>
+      <c r="G121" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C124" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D125" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>22</v>
+      </c>
+      <c r="D126" cm="1">
+        <f t="array" ref="D126:F126">TRANSPOSE(t_transpose[Column1])</f>
+        <v>1</v>
+      </c>
+      <c r="E126">
+        <v>2</v>
+      </c>
+      <c r="F126">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>22</v>
+      </c>
+      <c r="B131" t="s">
+        <v>60</v>
+      </c>
+      <c r="C131" t="s">
+        <v>129</v>
+      </c>
+      <c r="E131" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>1</v>
+      </c>
+      <c r="B132">
+        <v>2</v>
+      </c>
+      <c r="C132">
+        <v>3</v>
+      </c>
+      <c r="E132" cm="1">
+        <f t="array" ref="E132:E134">TRANSPOSE(Table6[#This Row])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E134">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A136" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E136" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>22</v>
+      </c>
+      <c r="B138" t="s">
+        <v>60</v>
+      </c>
+      <c r="E138" cm="1">
+        <f t="array" ref="E138:F140">_xlfn._xlws.FILTER(t_filter[],t_filter[Column2]="A")</f>
+        <v>1</v>
+      </c>
+      <c r="F138" t="str">
+        <v>A</v>
+      </c>
+      <c r="H138" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>1</v>
+      </c>
+      <c r="B139" t="s">
+        <v>16</v>
+      </c>
+      <c r="E139">
+        <v>3</v>
+      </c>
+      <c r="F139" t="str">
+        <v>A</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>2</v>
+      </c>
+      <c r="B140" t="s">
+        <v>17</v>
+      </c>
+      <c r="E140">
+        <v>4</v>
+      </c>
+      <c r="F140" t="str">
+        <v>A</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>3</v>
+      </c>
+      <c r="B141" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>4</v>
+      </c>
+      <c r="B142" t="s">
+        <v>16</v>
+      </c>
+      <c r="E142" cm="1">
+        <f t="array" ref="E142:F142">_xlfn._xlws.FILTER(t_filter[],t_filter[Column2]="B")</f>
+        <v>2</v>
+      </c>
+      <c r="F142" t="str">
+        <v>B</v>
+      </c>
+      <c r="H142" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A145" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>136</v>
+      </c>
+      <c r="C146" s="13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>22</v>
+      </c>
+      <c r="B147" t="s">
+        <v>60</v>
+      </c>
+      <c r="C147" t="s">
+        <v>129</v>
+      </c>
+      <c r="F147" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="H147" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="K147" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="O147" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>1</v>
+      </c>
+      <c r="B148">
+        <v>10</v>
+      </c>
+      <c r="C148">
+        <f>t_1_1[[#This Row],[Column1]]*t_1_1[[#This Row],[Column2]]</f>
+        <v>10</v>
+      </c>
+      <c r="F148" cm="1">
+        <f t="array" ref="F148:F150">t_1_1[Column1]</f>
+        <v>1</v>
+      </c>
+      <c r="H148">
+        <f>t_1_1[[#This Row],[Column1]]</f>
+        <v>1</v>
+      </c>
+      <c r="K148" cm="1">
+        <f t="array" ref="K148:K150">t_1_1[Column1]*t_1_2[Column2]</f>
+        <v>10</v>
+      </c>
+      <c r="O148">
+        <f>_xlfn.XLOOKUP(1,t_1_1[Column1],t_1_1[Column2])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>2</v>
+      </c>
+      <c r="B149">
+        <v>20</v>
+      </c>
+      <c r="C149">
+        <f>t_1_1[[#This Row],[Column1]]*t_1_1[[#This Row],[Column2]]</f>
+        <v>40</v>
+      </c>
+      <c r="F149">
+        <v>2</v>
+      </c>
+      <c r="K149">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>1</v>
+      </c>
+      <c r="B150">
+        <v>30</v>
+      </c>
+      <c r="C150">
+        <f>t_1_1[[#This Row],[Column1]]*t_1_1[[#This Row],[Column2]]</f>
+        <v>30</v>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+      <c r="K150">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A153" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>143</v>
+      </c>
+      <c r="C154" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>22</v>
+      </c>
+      <c r="B155" t="s">
+        <v>60</v>
+      </c>
+      <c r="C155" t="s">
+        <v>129</v>
+      </c>
+      <c r="I155" s="14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>1</v>
+      </c>
+      <c r="B156">
+        <v>10</v>
+      </c>
+      <c r="C156">
+        <f>AVERAGE(t_1_2[[#This Row],[Column1]:[Column2]])</f>
+        <v>5.5</v>
+      </c>
+      <c r="I156" cm="1">
+        <f t="array" ref="I156:J156">_xlfn.XLOOKUP(1,t_1_2[Column1],t_1_2[[Column1]:[Column2]])</f>
+        <v>1</v>
+      </c>
+      <c r="J156">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>2</v>
+      </c>
+      <c r="B157">
+        <v>20</v>
+      </c>
+      <c r="C157">
+        <f>AVERAGE(t_1_2[[#This Row],[Column1]:[Column2]])</f>
+        <v>11</v>
+      </c>
+      <c r="I157" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>3</v>
+      </c>
+      <c r="B158">
+        <v>30</v>
+      </c>
+      <c r="C158">
+        <f>AVERAGE(t_1_2[[#This Row],[Column1]:[Column2]])</f>
+        <v>16.5</v>
+      </c>
+      <c r="I158" cm="1">
+        <f t="array" ref="I158:K158">_xlfn.XLOOKUP(2,t_1_2[Column1],t_1_2[[Column1]:[Column3]])</f>
+        <v>2</v>
+      </c>
+      <c r="J158">
+        <v>20</v>
+      </c>
+      <c r="K158">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A161" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B161" s="16"/>
+      <c r="C161" s="16"/>
+      <c r="D161" s="16"/>
+      <c r="E161" s="16"/>
+      <c r="F161" s="16"/>
+      <c r="G161" s="16"/>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A162" s="16"/>
+      <c r="B162" s="16"/>
+      <c r="C162" s="16"/>
+      <c r="D162" s="16"/>
+      <c r="E162" s="16"/>
+      <c r="F162" s="16"/>
+      <c r="G162" s="16"/>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A163" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="B163" s="16"/>
+      <c r="C163" s="16"/>
+      <c r="D163" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="E163" s="16"/>
+      <c r="F163" s="16" cm="1">
+        <f t="array" ref="F163">SUMPRODUCT(--ISNUMBER(A164:A166))</f>
+        <v>2</v>
+      </c>
+      <c r="G163" s="16"/>
+      <c r="I163" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="N163" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A164" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B164" s="16"/>
+      <c r="C164" s="16"/>
+      <c r="D164" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="E164" s="16"/>
+      <c r="F164" s="17" cm="1">
+        <f t="array" ref="F164">SUMPRODUCT(--ISTEXT(A164:A166))</f>
+        <v>1</v>
+      </c>
+      <c r="G164" s="16"/>
+      <c r="I164" s="13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A165" s="16">
+        <v>1</v>
+      </c>
+      <c r="B165" s="16"/>
+      <c r="C165" s="16"/>
+      <c r="D165" s="16"/>
+      <c r="E165" s="16"/>
+      <c r="F165" s="16"/>
+      <c r="G165" s="16"/>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A166" s="16">
+        <v>2</v>
+      </c>
+      <c r="B166" s="16"/>
+      <c r="C166" s="16"/>
+      <c r="D166" s="16"/>
+      <c r="E166" s="16"/>
+      <c r="F166" s="16"/>
+      <c r="G166" s="16"/>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A167" s="16"/>
+      <c r="B167" s="16"/>
+      <c r="C167" s="16"/>
+      <c r="D167" s="16"/>
+      <c r="E167" s="16"/>
+      <c r="F167" s="16"/>
+      <c r="G167" s="16"/>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A168" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B168" s="16"/>
+      <c r="C168" s="16"/>
+      <c r="D168" s="16"/>
+      <c r="E168" s="16"/>
+      <c r="F168" s="16"/>
+      <c r="G168" s="16"/>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A169" s="16"/>
+      <c r="B169" s="16"/>
+      <c r="C169" s="16"/>
+      <c r="D169" s="16"/>
+      <c r="E169" s="16"/>
+      <c r="F169" s="16"/>
+      <c r="G169" s="16"/>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A170" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="B170" s="16"/>
+      <c r="C170" s="16"/>
+      <c r="D170" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="E170" s="16"/>
+      <c r="F170" s="16"/>
+      <c r="G170" s="16">
+        <f>COUNTA(A171:A174)</f>
+        <v>3</v>
+      </c>
+      <c r="I170" s="13"/>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A171" s="16">
+        <v>1</v>
+      </c>
+      <c r="B171" s="16"/>
+      <c r="C171" s="16"/>
+      <c r="D171" s="16"/>
+      <c r="E171" s="16"/>
+      <c r="F171" s="16"/>
+      <c r="G171" s="16"/>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A172" s="16">
+        <v>2</v>
+      </c>
+      <c r="B172" s="16"/>
+      <c r="C172" s="16"/>
+      <c r="D172" s="16"/>
+      <c r="E172" s="16"/>
+      <c r="F172" s="16"/>
+      <c r="G172" s="16"/>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A173" s="16"/>
+      <c r="B173" s="16"/>
+      <c r="C173" s="16"/>
+      <c r="D173" s="16"/>
+      <c r="E173" s="16"/>
+      <c r="F173" s="16"/>
+      <c r="G173" s="16"/>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A174" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B174" s="16"/>
+      <c r="C174" s="16"/>
+      <c r="D174" s="16"/>
+      <c r="E174" s="16"/>
+      <c r="F174" s="16"/>
+      <c r="G174" s="16"/>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A177" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A179" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B179" s="18"/>
+      <c r="D179" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <f ca="1">RAND()</f>
+        <v>3.5812905453907473E-2</v>
+      </c>
+      <c r="B180" t="str">
+        <f ca="1">IF(A180&lt;=0.8, "Train", "Test")</f>
+        <v>Train</v>
+      </c>
+      <c r="D180" t="str">
+        <f ca="1">IF(RAND()&lt;=0.8, "Train", "Test")</f>
+        <v>Train</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A183" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E183" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>159</v>
+      </c>
+      <c r="C185" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="G185" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>161</v>
+      </c>
+      <c r="C186" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="G186" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A187" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B187" s="9"/>
+      <c r="C187" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="D187" s="9"/>
+      <c r="E187" s="9"/>
+      <c r="F187" s="9"/>
+      <c r="G187" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A179:B179"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="13">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId13"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Semester 3/DS Grundlagen/SEP DSG.xlsx
+++ b/Semester 3/DS Grundlagen/SEP DSG.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonas/Documents/GitHub/ZHAW/Semester 3/DS Grundlagen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192F3922-ED22-C043-B24A-E202959A61BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3677C1-4C54-604E-9999-E3B254DAAC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25800" windowHeight="19640" xr2:uid="{CEF74FCD-3284-ED4D-A60D-F6C755181239}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25800" windowHeight="19640" activeTab="4" xr2:uid="{CEF74FCD-3284-ED4D-A60D-F6C755181239}"/>
   </bookViews>
   <sheets>
     <sheet name="Precision &amp; Recall" sheetId="1" r:id="rId1"/>
     <sheet name="Recht" sheetId="4" r:id="rId2"/>
     <sheet name="Manhattan distance" sheetId="2" r:id="rId3"/>
     <sheet name="Funktionen" sheetId="3" r:id="rId4"/>
+    <sheet name="EXPD" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="193">
   <si>
     <t>Precision &amp; Recall Matrix</t>
   </si>
@@ -619,6 +620,69 @@
   </si>
   <si>
     <t>ACHTUNG! Nur auf die berechneten Zielwerte anwenden -&gt; test</t>
+  </si>
+  <si>
+    <t>Anzahl Beobachtungen</t>
+  </si>
+  <si>
+    <t>=COUNTA(data[horsepower])</t>
+  </si>
+  <si>
+    <t>Anzahl leere Zellen</t>
+  </si>
+  <si>
+    <t>=COUNTIF(data[horsepower],"")</t>
+  </si>
+  <si>
+    <t>Anzahl numerische Werte</t>
+  </si>
+  <si>
+    <t>=SUMPRODUCT(--ISNUMBER(data[horsepower]))</t>
+  </si>
+  <si>
+    <t>Anzahl kategorische Werte</t>
+  </si>
+  <si>
+    <t>=SUMPRODUCT(--ISTEXT(data[horsepower]))</t>
+  </si>
+  <si>
+    <t>minimaler Wert</t>
+  </si>
+  <si>
+    <t>=MIN(data[horsepower])</t>
+  </si>
+  <si>
+    <t>maximaler Wert</t>
+  </si>
+  <si>
+    <t>=MAX(data[horsepower])</t>
+  </si>
+  <si>
+    <t>Durchschnitt</t>
+  </si>
+  <si>
+    <t>Standardabweichung</t>
+  </si>
+  <si>
+    <t>=AVERAGE(data[horsepower])</t>
+  </si>
+  <si>
+    <t>=MEDIAN(data[horsepower])</t>
+  </si>
+  <si>
+    <t>=STDEV(data[horsepower])</t>
+  </si>
+  <si>
+    <t>Anzahl Merkmale</t>
+  </si>
+  <si>
+    <t>=COUNT(UNIQUE(data[horsepower]))</t>
+  </si>
+  <si>
+    <t>Anzahl Duplikate</t>
+  </si>
+  <si>
+    <t>=COUNT(data[horsepower]) - COUNT(UNIQUE(data[horsepower]))</t>
   </si>
 </sst>
 </file>
@@ -756,7 +820,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -770,14 +834,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -785,12 +842,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1291,16 +1354,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F890E4CC-66C1-8642-85FA-3CB83EA5020E}" name="cosine" displayName="cosine" ref="A1:G7" totalsRowShown="0" headerRowDxfId="2" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F890E4CC-66C1-8642-85FA-3CB83EA5020E}" name="cosine" displayName="cosine" ref="A1:G7" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:G7" xr:uid="{F890E4CC-66C1-8642-85FA-3CB83EA5020E}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{34C9E40D-D6C8-354A-9B05-160D3A28B51E}" name="Column1" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{EED7EE8D-11B6-014B-8A96-F0EC0FA97198}" name="u" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{73D16EC8-7A23-E547-B123-DCFB3C4FA5D8}" name="v" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{AE2EC49F-AAB4-1E4F-86B5-20187CB02FFC}" name="w" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{1C36DEF7-8D0A-544A-9273-8FFF36E37E34}" name="x" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{7C577B60-1CCE-9744-B734-35A3F2F4A3A1}" name="y" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{ED9DDFB5-54FE-D944-BFF9-0684FB313282}" name=" z" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{34C9E40D-D6C8-354A-9B05-160D3A28B51E}" name="Column1" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{EED7EE8D-11B6-014B-8A96-F0EC0FA97198}" name="u" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{73D16EC8-7A23-E547-B123-DCFB3C4FA5D8}" name="v" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{AE2EC49F-AAB4-1E4F-86B5-20187CB02FFC}" name="w" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{1C36DEF7-8D0A-544A-9273-8FFF36E37E34}" name="x" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{7C577B60-1CCE-9744-B734-35A3F2F4A3A1}" name="y" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{ED9DDFB5-54FE-D944-BFF9-0684FB313282}" name=" z" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1767,7 +1830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680438A9-7231-9142-B19F-92A3E3C39A46}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
+    <sheetView zoomScale="137" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -1780,10 +1843,10 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="8"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
@@ -1794,7 +1857,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1808,7 +1871,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1882,27 +1945,24 @@
     <sheetView zoomScale="194" zoomScaleNormal="234" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="10"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="16" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="16" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="16" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="16" t="s">
         <v>167</v>
       </c>
     </row>
@@ -1925,168 +1985,168 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="10">
-        <v>2</v>
-      </c>
-      <c r="C2" s="10">
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
         <v>4</v>
       </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>3</v>
       </c>
-      <c r="F2" s="10">
-        <v>2</v>
-      </c>
-      <c r="G2" s="10">
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="10">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10">
-        <v>1</v>
-      </c>
-      <c r="D3" s="10">
-        <v>2</v>
-      </c>
-      <c r="E3" s="10">
-        <v>1</v>
-      </c>
-      <c r="F3" s="10">
-        <v>1</v>
-      </c>
-      <c r="G3" s="10">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="10">
-        <v>2</v>
-      </c>
-      <c r="C4" s="10">
-        <v>2</v>
-      </c>
-      <c r="D4" s="10">
-        <v>1</v>
-      </c>
-      <c r="E4" s="10">
-        <v>2</v>
-      </c>
-      <c r="F4" s="10">
-        <v>1</v>
-      </c>
-      <c r="G4" s="10">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="10">
-        <v>2</v>
-      </c>
-      <c r="C5" s="10">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
         <v>3</v>
       </c>
-      <c r="D5" s="10">
-        <v>1</v>
-      </c>
-      <c r="E5" s="10">
-        <v>2</v>
-      </c>
-      <c r="F5" s="10">
-        <v>1</v>
-      </c>
-      <c r="G5" s="10">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" s="10">
-        <v>1</v>
-      </c>
-      <c r="E6" s="10">
-        <v>1</v>
-      </c>
-      <c r="F6" s="10">
-        <v>2</v>
-      </c>
-      <c r="G6" s="10">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="10">
-        <v>1</v>
-      </c>
-      <c r="C7" s="10">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
         <v>4</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7">
         <v>5</v>
       </c>
-      <c r="E7" s="10">
-        <v>2</v>
-      </c>
-      <c r="F7" s="10">
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
         <v>3</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
+      <c r="A10" s="8"/>
       <c r="B10" t="str" cm="1">
         <f t="array" ref="B10:G10">TRANSPOSE(A11:A16)</f>
         <v>A</v>
@@ -2139,7 +2199,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
-        <f t="shared" ref="A12:A20" si="0">A3</f>
+        <f t="shared" ref="A12:A16" si="0">A3</f>
         <v>B</v>
       </c>
       <c r="B12" cm="1">
@@ -2203,8 +2263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{591A9AE4-3215-8747-9DD5-5C39F1136295}">
   <dimension ref="A1:O187"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="D180" sqref="D180"/>
+    <sheetView topLeftCell="A162" workbookViewId="0">
+      <selection activeCell="C185" sqref="C185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2217,22 +2277,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="32" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19" t="s">
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="19"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C2" t="s">
@@ -2250,12 +2310,12 @@
         <f>IF(A3&gt;B3,1,0)</f>
         <v>0</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C5" t="s">
@@ -2270,7 +2330,7 @@
         <f>ISNUMBER(A6)</f>
         <v>1</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="10" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2282,21 +2342,21 @@
         <f>ISNUMBER(A7)</f>
         <v>0</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F8" s="13"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C9" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="13"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -2306,7 +2366,7 @@
         <f>ISBLANK(A10)</f>
         <v>0</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="10" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2315,12 +2375,12 @@
         <f>ISBLANK(A11)</f>
         <v>1</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C13" t="s">
@@ -2355,7 +2415,7 @@
         <f>VLOOKUP(D15,$A$15:$B$17,2,FALSE)</f>
         <v>A</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="10" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2373,7 +2433,7 @@
         <f>VLOOKUP(D16,$A$15:$B$17,2,FALSE)</f>
         <v>B</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="10" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2391,12 +2451,12 @@
         <f>VLOOKUP(D17,$A$15:$B$17,2,FALSE)</f>
         <v>C</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C19" t="s">
@@ -2431,7 +2491,7 @@
         <f>_xlfn.XLOOKUP(D21,$B$21:$B$23,$A$21:$A$23)</f>
         <v>A</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="10" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2449,7 +2509,7 @@
         <f>_xlfn.XLOOKUP(D22,$B$21:$B$23,$A$21:$A$23)</f>
         <v>B</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="10" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2467,12 +2527,12 @@
         <f>_xlfn.XLOOKUP(D23,$B$21:$B$23,$A$21:$A$23)</f>
         <v>C</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="10" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="9" t="s">
         <v>51</v>
       </c>
       <c r="C25" t="s">
@@ -2495,7 +2555,7 @@
         <f>IFERROR(A27/B27, 0)</f>
         <v>0</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="10" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2510,12 +2570,12 @@
         <f>IFERROR(A28/B28, 0)</f>
         <v>0.5</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="9" t="s">
         <v>56</v>
       </c>
       <c r="C30" t="s">
@@ -2541,10 +2601,10 @@
         <f>SUMPRODUCT(A33:A34,B33:B34)</f>
         <v>11</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="G32" s="13" t="s">
+      <c r="G32" s="10" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2559,10 +2619,10 @@
         <f>SUMPRODUCT(A33:B33,A34:B34)</f>
         <v>14</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G33" s="13" t="s">
+      <c r="G33" s="10" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2582,15 +2642,15 @@
         <f>SUMPRODUCT(t_sumproduct[Column1],t_sumproduct[Column2])</f>
         <v>11</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="E35" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="G35" s="13" t="s">
+      <c r="G35" s="10" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="9" t="s">
         <v>67</v>
       </c>
       <c r="C38" t="s">
@@ -2610,7 +2670,7 @@
         <f>COUNTIF($A$40:$A$44,A40)</f>
         <v>2</v>
       </c>
-      <c r="G40" s="13" t="s">
+      <c r="G40" s="10" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2622,7 +2682,7 @@
         <f t="shared" ref="D41:D44" si="0">COUNTIF($A$40:$A$44,A41)</f>
         <v>3</v>
       </c>
-      <c r="G41" s="13" t="s">
+      <c r="G41" s="10" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2634,7 +2694,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G42" s="13" t="s">
+      <c r="G42" s="10" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2646,7 +2706,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G43" s="13" t="s">
+      <c r="G43" s="10" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2658,12 +2718,12 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G44" s="13" t="s">
+      <c r="G44" s="10" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C47" t="s">
@@ -2683,10 +2743,10 @@
         <f>SUMSQ(A50:A52)</f>
         <v>14</v>
       </c>
-      <c r="E49" s="13" t="s">
+      <c r="E49" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="G49" s="13" t="s">
+      <c r="G49" s="10" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2706,7 +2766,7 @@
         <f>SUMSQ(t_sumsq[Column1])</f>
         <v>14</v>
       </c>
-      <c r="G51" s="13" t="s">
+      <c r="G51" s="10" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2716,7 +2776,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="12" t="s">
+      <c r="A54" s="9" t="s">
         <v>82</v>
       </c>
       <c r="C54" t="s">
@@ -2736,7 +2796,7 @@
         <f>SUM(A57:A59)</f>
         <v>6</v>
       </c>
-      <c r="G56" s="13" t="s">
+      <c r="G56" s="10" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2756,7 +2816,7 @@
         <f>SUM(t_sum[Column1])</f>
         <v>6</v>
       </c>
-      <c r="G58" s="13" t="s">
+      <c r="G58" s="10" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2766,7 +2826,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="12" t="s">
+      <c r="A62" s="9" t="s">
         <v>88</v>
       </c>
       <c r="C62" t="s">
@@ -2786,7 +2846,7 @@
         <f>ROWS(A64:A66)</f>
         <v>3</v>
       </c>
-      <c r="G64" s="13" t="s">
+      <c r="G64" s="10" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2801,7 +2861,7 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="12" t="s">
+      <c r="A68" s="9" t="s">
         <v>92</v>
       </c>
       <c r="C68" t="s">
@@ -2821,7 +2881,7 @@
         <f>COUNT(A70:A72)</f>
         <v>3</v>
       </c>
-      <c r="G70" s="13" t="s">
+      <c r="G70" s="10" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2836,7 +2896,7 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="12" t="s">
+      <c r="A74" s="9" t="s">
         <v>96</v>
       </c>
       <c r="C74" t="s">
@@ -2851,12 +2911,12 @@
         <f>3^2</f>
         <v>9</v>
       </c>
-      <c r="G75" s="13" t="s">
+      <c r="G75" s="10" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="12" t="s">
+      <c r="A77" s="9" t="s">
         <v>99</v>
       </c>
       <c r="C77" t="s">
@@ -2871,12 +2931,12 @@
         <f>SQRT(A78)</f>
         <v>3</v>
       </c>
-      <c r="G78" s="13" t="s">
+      <c r="G78" s="10" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="12" t="s">
+      <c r="A80" s="9" t="s">
         <v>102</v>
       </c>
       <c r="C80" t="s">
@@ -2896,7 +2956,7 @@
         <f>AVERAGE(t_mean[Column1])</f>
         <v>4.333333333333333</v>
       </c>
-      <c r="G82" s="13" t="s">
+      <c r="G82" s="10" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2916,7 +2976,7 @@
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" s="12" t="s">
+      <c r="A87" s="9" t="s">
         <v>106</v>
       </c>
       <c r="C87" t="s">
@@ -2936,7 +2996,7 @@
         <f>MEDIAN(t_median[Column1])</f>
         <v>2</v>
       </c>
-      <c r="G89" s="13" t="s">
+      <c r="G89" s="10" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2956,7 +3016,7 @@
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" s="12" t="s">
+      <c r="A95" s="9" t="s">
         <v>110</v>
       </c>
       <c r="C95" t="s">
@@ -2976,7 +3036,7 @@
         <f>STDEV(t_stdev[Column1])</f>
         <v>1</v>
       </c>
-      <c r="G97" s="13" t="s">
+      <c r="G97" s="10" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2996,7 +3056,7 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A103" s="12" t="s">
+      <c r="A103" s="9" t="s">
         <v>114</v>
       </c>
       <c r="C103" t="s">
@@ -3016,7 +3076,7 @@
         <f>MIN(t_minmax[Column1])</f>
         <v>1</v>
       </c>
-      <c r="G105" s="13" t="s">
+      <c r="G105" s="10" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3041,12 +3101,12 @@
         <f>MAX(t_minmax[Column1])</f>
         <v>3</v>
       </c>
-      <c r="G108" s="13" t="s">
+      <c r="G108" s="10" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112" s="12" t="s">
+      <c r="A112" s="9" t="s">
         <v>120</v>
       </c>
       <c r="C112" t="s">
@@ -3061,7 +3121,7 @@
         <f>_xlfn.MODE.SNGL(t_mode[Column1])</f>
         <v>2</v>
       </c>
-      <c r="G114" s="13" t="s">
+      <c r="G114" s="10" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3086,7 +3146,7 @@
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A120" s="12" t="s">
+      <c r="A120" s="9" t="s">
         <v>123</v>
       </c>
       <c r="C120" t="s">
@@ -3101,12 +3161,12 @@
         <f>ABS(A121)</f>
         <v>5</v>
       </c>
-      <c r="G121" s="13" t="s">
+      <c r="G121" s="10" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A124" s="12" t="s">
+      <c r="A124" s="9" t="s">
         <v>126</v>
       </c>
       <c r="C124" t="s">
@@ -3188,7 +3248,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" s="9" t="s">
+      <c r="A136" s="7" t="s">
         <v>131</v>
       </c>
       <c r="E136" t="s">
@@ -3209,7 +3269,7 @@
       <c r="F138" t="str">
         <v>A</v>
       </c>
-      <c r="H138" s="13" t="s">
+      <c r="H138" s="10" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3263,12 +3323,12 @@
       <c r="F142" t="str">
         <v>B</v>
       </c>
-      <c r="H142" s="13" t="s">
+      <c r="H142" s="10" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A145" s="9" t="s">
+      <c r="A145" s="7" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3276,7 +3336,7 @@
       <c r="A146" t="s">
         <v>136</v>
       </c>
-      <c r="C146" s="13" t="s">
+      <c r="C146" s="10" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3290,16 +3350,16 @@
       <c r="C147" t="s">
         <v>129</v>
       </c>
-      <c r="F147" s="13" t="s">
+      <c r="F147" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="H147" s="13" t="s">
+      <c r="H147" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="K147" s="13" t="s">
+      <c r="K147" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="O147" s="13" t="s">
+      <c r="O147" s="10" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3368,7 +3428,7 @@
       </c>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A153" s="9" t="s">
+      <c r="A153" s="7" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3376,7 +3436,7 @@
       <c r="A154" t="s">
         <v>143</v>
       </c>
-      <c r="C154" s="13" t="s">
+      <c r="C154" s="10" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3390,7 +3450,7 @@
       <c r="C155" t="s">
         <v>129</v>
       </c>
-      <c r="I155" s="14" t="s">
+      <c r="I155" s="11" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3424,7 +3484,7 @@
         <f>AVERAGE(t_1_2[[#This Row],[Column1]:[Column2]])</f>
         <v>11</v>
       </c>
-      <c r="I157" s="13" t="s">
+      <c r="I157" s="10" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3451,41 +3511,41 @@
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A161" s="15" t="s">
+      <c r="A161" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="B161" s="16"/>
-      <c r="C161" s="16"/>
-      <c r="D161" s="16"/>
-      <c r="E161" s="16"/>
-      <c r="F161" s="16"/>
-      <c r="G161" s="16"/>
+      <c r="B161" s="13"/>
+      <c r="C161" s="13"/>
+      <c r="D161" s="13"/>
+      <c r="E161" s="13"/>
+      <c r="F161" s="13"/>
+      <c r="G161" s="13"/>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A162" s="16"/>
-      <c r="B162" s="16"/>
-      <c r="C162" s="16"/>
-      <c r="D162" s="16"/>
-      <c r="E162" s="16"/>
-      <c r="F162" s="16"/>
-      <c r="G162" s="16"/>
+      <c r="A162" s="13"/>
+      <c r="B162" s="13"/>
+      <c r="C162" s="13"/>
+      <c r="D162" s="13"/>
+      <c r="E162" s="13"/>
+      <c r="F162" s="13"/>
+      <c r="G162" s="13"/>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A163" s="16" t="s">
+      <c r="A163" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="B163" s="16"/>
-      <c r="C163" s="16"/>
-      <c r="D163" s="16" t="s">
+      <c r="B163" s="13"/>
+      <c r="C163" s="13"/>
+      <c r="D163" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="E163" s="16"/>
-      <c r="F163" s="16" cm="1">
+      <c r="E163" s="13"/>
+      <c r="F163" s="13" cm="1">
         <f t="array" ref="F163">SUMPRODUCT(--ISNUMBER(A164:A166))</f>
         <v>2</v>
       </c>
-      <c r="G163" s="16"/>
-      <c r="I163" s="13" t="s">
+      <c r="G163" s="13"/>
+      <c r="I163" s="10" t="s">
         <v>150</v>
       </c>
       <c r="N163" t="s">
@@ -3493,144 +3553,144 @@
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A164" s="16" t="s">
+      <c r="A164" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B164" s="16"/>
-      <c r="C164" s="16"/>
-      <c r="D164" s="16" t="s">
+      <c r="B164" s="13"/>
+      <c r="C164" s="13"/>
+      <c r="D164" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="E164" s="16"/>
-      <c r="F164" s="17" cm="1">
+      <c r="E164" s="13"/>
+      <c r="F164" s="14" cm="1">
         <f t="array" ref="F164">SUMPRODUCT(--ISTEXT(A164:A166))</f>
         <v>1</v>
       </c>
-      <c r="G164" s="16"/>
-      <c r="I164" s="13" t="s">
+      <c r="G164" s="13"/>
+      <c r="I164" s="10" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A165" s="16">
-        <v>1</v>
-      </c>
-      <c r="B165" s="16"/>
-      <c r="C165" s="16"/>
-      <c r="D165" s="16"/>
-      <c r="E165" s="16"/>
-      <c r="F165" s="16"/>
-      <c r="G165" s="16"/>
+      <c r="A165" s="13">
+        <v>1</v>
+      </c>
+      <c r="B165" s="13"/>
+      <c r="C165" s="13"/>
+      <c r="D165" s="13"/>
+      <c r="E165" s="13"/>
+      <c r="F165" s="13"/>
+      <c r="G165" s="13"/>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A166" s="16">
-        <v>2</v>
-      </c>
-      <c r="B166" s="16"/>
-      <c r="C166" s="16"/>
-      <c r="D166" s="16"/>
-      <c r="E166" s="16"/>
-      <c r="F166" s="16"/>
-      <c r="G166" s="16"/>
+      <c r="A166" s="13">
+        <v>2</v>
+      </c>
+      <c r="B166" s="13"/>
+      <c r="C166" s="13"/>
+      <c r="D166" s="13"/>
+      <c r="E166" s="13"/>
+      <c r="F166" s="13"/>
+      <c r="G166" s="13"/>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A167" s="16"/>
-      <c r="B167" s="16"/>
-      <c r="C167" s="16"/>
-      <c r="D167" s="16"/>
-      <c r="E167" s="16"/>
-      <c r="F167" s="16"/>
-      <c r="G167" s="16"/>
+      <c r="A167" s="13"/>
+      <c r="B167" s="13"/>
+      <c r="C167" s="13"/>
+      <c r="D167" s="13"/>
+      <c r="E167" s="13"/>
+      <c r="F167" s="13"/>
+      <c r="G167" s="13"/>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A168" s="15" t="s">
+      <c r="A168" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="B168" s="16"/>
-      <c r="C168" s="16"/>
-      <c r="D168" s="16"/>
-      <c r="E168" s="16"/>
-      <c r="F168" s="16"/>
-      <c r="G168" s="16"/>
+      <c r="B168" s="13"/>
+      <c r="C168" s="13"/>
+      <c r="D168" s="13"/>
+      <c r="E168" s="13"/>
+      <c r="F168" s="13"/>
+      <c r="G168" s="13"/>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A169" s="16"/>
-      <c r="B169" s="16"/>
-      <c r="C169" s="16"/>
-      <c r="D169" s="16"/>
-      <c r="E169" s="16"/>
-      <c r="F169" s="16"/>
-      <c r="G169" s="16"/>
+      <c r="A169" s="13"/>
+      <c r="B169" s="13"/>
+      <c r="C169" s="13"/>
+      <c r="D169" s="13"/>
+      <c r="E169" s="13"/>
+      <c r="F169" s="13"/>
+      <c r="G169" s="13"/>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A170" s="16" t="s">
+      <c r="A170" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="B170" s="16"/>
-      <c r="C170" s="16"/>
-      <c r="D170" s="16" t="s">
+      <c r="B170" s="13"/>
+      <c r="C170" s="13"/>
+      <c r="D170" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="E170" s="16"/>
-      <c r="F170" s="16"/>
-      <c r="G170" s="16">
+      <c r="E170" s="13"/>
+      <c r="F170" s="13"/>
+      <c r="G170" s="13">
         <f>COUNTA(A171:A174)</f>
         <v>3</v>
       </c>
-      <c r="I170" s="13"/>
+      <c r="I170" s="10"/>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A171" s="16">
-        <v>1</v>
-      </c>
-      <c r="B171" s="16"/>
-      <c r="C171" s="16"/>
-      <c r="D171" s="16"/>
-      <c r="E171" s="16"/>
-      <c r="F171" s="16"/>
-      <c r="G171" s="16"/>
+      <c r="A171" s="13">
+        <v>1</v>
+      </c>
+      <c r="B171" s="13"/>
+      <c r="C171" s="13"/>
+      <c r="D171" s="13"/>
+      <c r="E171" s="13"/>
+      <c r="F171" s="13"/>
+      <c r="G171" s="13"/>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A172" s="16">
-        <v>2</v>
-      </c>
-      <c r="B172" s="16"/>
-      <c r="C172" s="16"/>
-      <c r="D172" s="16"/>
-      <c r="E172" s="16"/>
-      <c r="F172" s="16"/>
-      <c r="G172" s="16"/>
+      <c r="A172" s="13">
+        <v>2</v>
+      </c>
+      <c r="B172" s="13"/>
+      <c r="C172" s="13"/>
+      <c r="D172" s="13"/>
+      <c r="E172" s="13"/>
+      <c r="F172" s="13"/>
+      <c r="G172" s="13"/>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A173" s="16"/>
-      <c r="B173" s="16"/>
-      <c r="C173" s="16"/>
-      <c r="D173" s="16"/>
-      <c r="E173" s="16"/>
-      <c r="F173" s="16"/>
-      <c r="G173" s="16"/>
+      <c r="A173" s="13"/>
+      <c r="B173" s="13"/>
+      <c r="C173" s="13"/>
+      <c r="D173" s="13"/>
+      <c r="E173" s="13"/>
+      <c r="F173" s="13"/>
+      <c r="G173" s="13"/>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A174" s="16" t="s">
+      <c r="A174" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B174" s="16"/>
-      <c r="C174" s="16"/>
-      <c r="D174" s="16"/>
-      <c r="E174" s="16"/>
-      <c r="F174" s="16"/>
-      <c r="G174" s="16"/>
+      <c r="B174" s="13"/>
+      <c r="C174" s="13"/>
+      <c r="D174" s="13"/>
+      <c r="E174" s="13"/>
+      <c r="F174" s="13"/>
+      <c r="G174" s="13"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A177" s="9" t="s">
+      <c r="A177" s="7" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A179" s="18" t="s">
+      <c r="A179" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="B179" s="18"/>
+      <c r="B179" s="20"/>
       <c r="D179" t="s">
         <v>157</v>
       </c>
@@ -3638,11 +3698,11 @@
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180">
         <f ca="1">RAND()</f>
-        <v>3.5812905453907473E-2</v>
+        <v>0.91522742024486559</v>
       </c>
       <c r="B180" t="str">
         <f ca="1">IF(A180&lt;=0.8, "Train", "Test")</f>
-        <v>Train</v>
+        <v>Test</v>
       </c>
       <c r="D180" t="str">
         <f ca="1">IF(RAND()&lt;=0.8, "Train", "Test")</f>
@@ -3650,10 +3710,10 @@
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A183" s="9" t="s">
+      <c r="A183" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="E183" s="9" t="s">
+      <c r="E183" s="7" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3661,7 +3721,7 @@
       <c r="A185" t="s">
         <v>159</v>
       </c>
-      <c r="C185" s="13" t="s">
+      <c r="C185" s="10" t="s">
         <v>160</v>
       </c>
       <c r="G185" t="s">
@@ -3672,7 +3732,7 @@
       <c r="A186" t="s">
         <v>161</v>
       </c>
-      <c r="C186" s="13" t="s">
+      <c r="C186" s="10" t="s">
         <v>162</v>
       </c>
       <c r="G186" t="s">
@@ -3680,17 +3740,17 @@
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A187" s="9" t="s">
+      <c r="A187" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B187" s="9"/>
-      <c r="C187" s="21" t="s">
+      <c r="B187" s="7"/>
+      <c r="C187" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="D187" s="9"/>
-      <c r="E187" s="9"/>
-      <c r="F187" s="9"/>
-      <c r="G187" s="9" t="s">
+      <c r="D187" s="7"/>
+      <c r="E187" s="7"/>
+      <c r="F187" s="7"/>
+      <c r="G187" s="7" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3716,4 +3776,110 @@
     <tablePart r:id="rId13"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF486FE3-C969-3C46-8E42-899587482A4E}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="36.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>185</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Semester 3/DS Grundlagen/SEP DSG.xlsx
+++ b/Semester 3/DS Grundlagen/SEP DSG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonas/Documents/GitHub/ZHAW/Semester 3/DS Grundlagen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3677C1-4C54-604E-9999-E3B254DAAC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A39E73-FC4E-6141-AF70-A40E530339C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25800" windowHeight="19640" activeTab="4" xr2:uid="{CEF74FCD-3284-ED4D-A60D-F6C755181239}"/>
+    <workbookView xWindow="15140" yWindow="760" windowWidth="15120" windowHeight="17420" xr2:uid="{CEF74FCD-3284-ED4D-A60D-F6C755181239}"/>
   </bookViews>
   <sheets>
     <sheet name="Precision &amp; Recall" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="194">
   <si>
     <t>Precision &amp; Recall Matrix</t>
   </si>
@@ -683,6 +683,9 @@
   </si>
   <si>
     <t>=COUNT(data[horsepower]) - COUNT(UNIQUE(data[horsepower]))</t>
+  </si>
+  <si>
+    <t>Anzahl Klassen</t>
   </si>
 </sst>
 </file>
@@ -1830,8 +1833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680438A9-7231-9142-B19F-92A3E3C39A46}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView zoomScale="137" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
+      <selection activeCell="C7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2263,8 +2266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{591A9AE4-3215-8747-9DD5-5C39F1136295}">
   <dimension ref="A1:O187"/>
   <sheetViews>
-    <sheetView topLeftCell="A162" workbookViewId="0">
-      <selection activeCell="C185" sqref="C185"/>
+    <sheetView topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="D180" sqref="D180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3698,11 +3701,11 @@
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180">
         <f ca="1">RAND()</f>
-        <v>0.91522742024486559</v>
+        <v>0.74434089651059243</v>
       </c>
       <c r="B180" t="str">
         <f ca="1">IF(A180&lt;=0.8, "Train", "Test")</f>
-        <v>Test</v>
+        <v>Train</v>
       </c>
       <c r="D180" t="str">
         <f ca="1">IF(RAND()&lt;=0.8, "Train", "Test")</f>
@@ -3780,10 +3783,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF486FE3-C969-3C46-8E42-899587482A4E}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3879,7 +3882,13 @@
         <v>188</v>
       </c>
     </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>193</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>